--- a/gtrends.xlsx
+++ b/gtrends.xlsx
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71">
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91">
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100">
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105">
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114">
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118">
@@ -1899,7 +1899,7 @@
         </is>
       </c>
       <c r="C118">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119">
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>59</v>
+        <v>57.99999999999999</v>
       </c>
     </row>
     <row r="121">
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122">
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123">
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
     </row>
     <row r="155">
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="C172">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173">
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="C181">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182">
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="C182">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183">
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="C186">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="C187">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="C189">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190">
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="C196">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="C209">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210">
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="C216">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="217">
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="C220">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="221">
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="C225">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226">
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="C228">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229">
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="C235">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="C236">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237">
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="C241">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="C244">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="245">
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="C245">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="246">
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C251">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="252">
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="C253">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="254">
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="C254">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="255">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="C259">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="260">
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="C260">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="261">
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="C264">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265">
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="C267">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="268">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C269">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="270">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C274">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="275">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="C277">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="278">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="C279">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="280">
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="C280">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="281">
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="C281">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="282">
@@ -4161,7 +4161,7 @@
         </is>
       </c>
       <c r="C292">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="293">
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="C293">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="294">
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="C294">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="295">
@@ -4213,7 +4213,7 @@
         </is>
       </c>
       <c r="C296">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="297">
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="C298">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="299">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="C299">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="300">
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="C301">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="302">
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="C308">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="309">
@@ -4395,7 +4395,7 @@
         </is>
       </c>
       <c r="C310">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="311">
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="C311">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="312">
@@ -4434,7 +4434,7 @@
         </is>
       </c>
       <c r="C313">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="314">
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="C317">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="318">
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C320">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="321">
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="C322">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="323">
@@ -4590,7 +4590,7 @@
         </is>
       </c>
       <c r="C325">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="326">
@@ -4629,7 +4629,7 @@
         </is>
       </c>
       <c r="C328">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="329">
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="C331">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="332">
@@ -4694,7 +4694,7 @@
         </is>
       </c>
       <c r="C333">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="334">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="C334">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="335">
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="C335">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="336">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="C337">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="338">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="C339">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="340">
@@ -4785,7 +4785,7 @@
         </is>
       </c>
       <c r="C340">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="341">
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C341">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="342">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="C342">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="343">
@@ -4824,7 +4824,7 @@
         </is>
       </c>
       <c r="C343">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="344">
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="C345">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="346">
@@ -4863,7 +4863,7 @@
         </is>
       </c>
       <c r="C346">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="347">
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="C347">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="348">
@@ -4889,7 +4889,7 @@
         </is>
       </c>
       <c r="C348">
-        <v>59</v>
+        <v>57.99999999999999</v>
       </c>
     </row>
     <row r="349">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="C349">
-        <v>57.99999999999999</v>
+        <v>56.99999999999999</v>
       </c>
     </row>
     <row r="350">
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="C350">
-        <v>59</v>
+        <v>57.99999999999999</v>
       </c>
     </row>
     <row r="351">
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="C352">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="353">
@@ -4954,7 +4954,7 @@
         </is>
       </c>
       <c r="C353">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="354">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="C354">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="355">
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="C355">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="356">
@@ -4993,7 +4993,7 @@
         </is>
       </c>
       <c r="C356">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="357">
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="C357">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="358">
@@ -5019,7 +5019,7 @@
         </is>
       </c>
       <c r="C358">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="359">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C359">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="360">
@@ -5045,7 +5045,7 @@
         </is>
       </c>
       <c r="C360">
-        <v>56.00000000000001</v>
+        <v>55.00000000000001</v>
       </c>
     </row>
     <row r="361">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="C362">
-        <v>57.99999999999999</v>
+        <v>56.99999999999999</v>
       </c>
     </row>
     <row r="363">
@@ -5188,7 +5188,7 @@
         </is>
       </c>
       <c r="C371">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -5643,7 +5643,7 @@
         </is>
       </c>
       <c r="C406">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -5864,7 +5864,7 @@
         </is>
       </c>
       <c r="C423">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -6579,7 +6579,7 @@
         </is>
       </c>
       <c r="C478">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="C487">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -7255,7 +7255,7 @@
         </is>
       </c>
       <c r="C530">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -7333,7 +7333,7 @@
         </is>
       </c>
       <c r="C536">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="537">
@@ -7411,7 +7411,7 @@
         </is>
       </c>
       <c r="C542">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="C570">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="571">
@@ -7814,7 +7814,7 @@
         </is>
       </c>
       <c r="C573">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="574">
@@ -8243,7 +8243,7 @@
         </is>
       </c>
       <c r="C606">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
